--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>680149.8550868059</v>
+        <v>684361.8128581765</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="C2" t="n">
         <v>593975.3455698525</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="E2" t="n">
         <v>165764.7948173021</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>463844.333129713</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="F4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="G4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="H4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="I4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="J4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="K4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="L4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="M4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="N4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="O4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="P4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96503.41244013971</v>
+        <v>97197.01446774299</v>
       </c>
       <c r="C6" t="n">
-        <v>96503.41244013954</v>
+        <v>97197.01446774276</v>
       </c>
       <c r="D6" t="n">
-        <v>96503.41244013983</v>
+        <v>97197.01446774288</v>
       </c>
       <c r="E6" t="n">
-        <v>-41438.23341122572</v>
+        <v>-41027.20129166594</v>
       </c>
       <c r="F6" t="n">
-        <v>91661.76658877435</v>
+        <v>92072.79870833407</v>
       </c>
       <c r="G6" t="n">
-        <v>91661.76658877435</v>
+        <v>92072.79870833407</v>
       </c>
       <c r="H6" t="n">
-        <v>91661.76658877435</v>
+        <v>92072.79870833407</v>
       </c>
       <c r="I6" t="n">
-        <v>91661.76658877435</v>
+        <v>92072.79870833407</v>
       </c>
       <c r="J6" t="n">
-        <v>91661.76658877435</v>
+        <v>92072.79870833407</v>
       </c>
       <c r="K6" t="n">
-        <v>91661.76658877435</v>
+        <v>92072.79870833407</v>
       </c>
       <c r="L6" t="n">
-        <v>91661.76658877435</v>
+        <v>92072.79870833407</v>
       </c>
       <c r="M6" t="n">
-        <v>91661.76658877435</v>
+        <v>92072.79870833407</v>
       </c>
       <c r="N6" t="n">
-        <v>91661.76658877435</v>
+        <v>92072.79870833407</v>
       </c>
       <c r="O6" t="n">
-        <v>91661.76658877435</v>
+        <v>92072.79870833407</v>
       </c>
       <c r="P6" t="n">
-        <v>91661.76658877435</v>
+        <v>92072.79870833407</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>684361.8128581765</v>
+        <v>698088.1709955951</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>593975.3455698526</v>
+      </c>
+      <c r="C2" t="n">
         <v>593975.3455698527</v>
-      </c>
-      <c r="C2" t="n">
-        <v>593975.3455698525</v>
       </c>
       <c r="D2" t="n">
         <v>593975.3455698526</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="F4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="G4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="H4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="I4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="J4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="K4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="L4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="M4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="N4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="O4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="P4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97197.01446774299</v>
+        <v>97197.01446774285</v>
       </c>
       <c r="C6" t="n">
-        <v>97197.01446774276</v>
+        <v>97197.01446774296</v>
       </c>
       <c r="D6" t="n">
-        <v>97197.01446774288</v>
+        <v>97197.01446774285</v>
       </c>
       <c r="E6" t="n">
-        <v>-41027.20129166594</v>
+        <v>-41027.20129166595</v>
       </c>
       <c r="F6" t="n">
-        <v>92072.79870833407</v>
+        <v>92072.79870833411</v>
       </c>
       <c r="G6" t="n">
-        <v>92072.79870833407</v>
+        <v>92072.79870833411</v>
       </c>
       <c r="H6" t="n">
-        <v>92072.79870833407</v>
+        <v>92072.79870833411</v>
       </c>
       <c r="I6" t="n">
-        <v>92072.79870833407</v>
+        <v>92072.79870833411</v>
       </c>
       <c r="J6" t="n">
-        <v>92072.79870833407</v>
+        <v>92072.79870833411</v>
       </c>
       <c r="K6" t="n">
-        <v>92072.79870833407</v>
+        <v>92072.79870833411</v>
       </c>
       <c r="L6" t="n">
-        <v>92072.79870833407</v>
+        <v>92072.79870833411</v>
       </c>
       <c r="M6" t="n">
-        <v>92072.79870833407</v>
+        <v>92072.79870833411</v>
       </c>
       <c r="N6" t="n">
-        <v>92072.79870833407</v>
+        <v>92072.79870833411</v>
       </c>
       <c r="O6" t="n">
-        <v>92072.79870833407</v>
+        <v>92072.79870833411</v>
       </c>
       <c r="P6" t="n">
-        <v>92072.79870833407</v>
+        <v>92072.79870833411</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>698088.1709955951</v>
+        <v>614302.7692339697</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="C2" t="n">
         <v>593975.3455698527</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="E2" t="n">
         <v>165764.7948173021</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97197.01446774285</v>
+        <v>97152.8786890616</v>
       </c>
       <c r="C6" t="n">
-        <v>97197.01446774296</v>
+        <v>97152.87868906184</v>
       </c>
       <c r="D6" t="n">
-        <v>97197.01446774285</v>
+        <v>97152.87868906184</v>
       </c>
       <c r="E6" t="n">
-        <v>-41027.20129166595</v>
+        <v>-55837.21813077989</v>
       </c>
       <c r="F6" t="n">
-        <v>92072.79870833411</v>
+        <v>77262.78186922018</v>
       </c>
       <c r="G6" t="n">
-        <v>92072.79870833411</v>
+        <v>77262.78186922018</v>
       </c>
       <c r="H6" t="n">
-        <v>92072.79870833411</v>
+        <v>77262.78186922018</v>
       </c>
       <c r="I6" t="n">
-        <v>92072.79870833411</v>
+        <v>77262.78186922018</v>
       </c>
       <c r="J6" t="n">
-        <v>92072.79870833411</v>
+        <v>77262.78186922018</v>
       </c>
       <c r="K6" t="n">
-        <v>92072.79870833411</v>
+        <v>77262.78186922018</v>
       </c>
       <c r="L6" t="n">
-        <v>92072.79870833411</v>
+        <v>77262.78186922018</v>
       </c>
       <c r="M6" t="n">
-        <v>92072.79870833411</v>
+        <v>77262.78186922018</v>
       </c>
       <c r="N6" t="n">
-        <v>92072.79870833411</v>
+        <v>77262.78186922018</v>
       </c>
       <c r="O6" t="n">
-        <v>92072.79870833411</v>
+        <v>77262.78186922018</v>
       </c>
       <c r="P6" t="n">
-        <v>92072.79870833411</v>
+        <v>77262.78186922018</v>
       </c>
     </row>
   </sheetData>
